--- a/doc/BudgetEstimateGridGeomInC++.xlsx
+++ b/doc/BudgetEstimateGridGeomInC++.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUCA\ENGINES\GridGeom++\gridgeom++\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCBA6C-52AF-4FEE-8D7A-542D62F6627B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297002C-98D8-4AEA-AB7D-D3B81972B606}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="begroting" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>D</t>
   </si>
@@ -89,34 +89,40 @@
     </r>
   </si>
   <si>
-    <t>gitlab repository</t>
-  </si>
-  <si>
-    <t>First presentation on dune framework</t>
-  </si>
-  <si>
     <t>Pijl, S.P. van der</t>
   </si>
   <si>
     <t>Carniato, L.</t>
   </si>
   <si>
-    <t>Complete basic mesh adminstration in C++</t>
-  </si>
-  <si>
-    <t>september-december 2019</t>
-  </si>
-  <si>
     <t>Writing unit tests for basic node administration</t>
   </si>
   <si>
-    <t xml:space="preserve">Writing orthogonalization </t>
-  </si>
-  <si>
     <t>Writing unit tests for orthogonalization</t>
   </si>
   <si>
     <t>Gridgeom in C++ - phase 1 (mesh administration and orthogonalization)</t>
+  </si>
+  <si>
+    <t>Complete basic mesh adminstration in C++ (circumcenters)</t>
+  </si>
+  <si>
+    <t>sep-oct 2019</t>
+  </si>
+  <si>
+    <t>updated code</t>
+  </si>
+  <si>
+    <t>Testing orthogonalization with different options and meshes</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Produce a presentation</t>
+  </si>
+  <si>
+    <t>Writing orthogonalization in c++</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,17 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="8" width="13.85546875" customWidth="1"/>
   </cols>
@@ -663,16 +671,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,37 +724,39 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="15">
+        <v>43709</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <f>SUM(F7:G7)</f>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <f>SUMPRODUCT(F$4:H$4,F7:H7)</f>
-        <v>1056</v>
+        <v>528</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
+      <c r="A8" s="15">
+        <v>43709</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
+        <f t="shared" ref="D8:D12" si="0">SUM(F8:G8)</f>
         <v>8</v>
       </c>
       <c r="E8" s="5">
@@ -759,24 +769,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9">
-        <f>8*4</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="E9" s="5">
         <f>SUMPRODUCT(F$4:H$4,F9:H9)</f>
-        <v>4892</v>
+        <v>9908</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -784,87 +794,119 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E12" si="1">SUMPRODUCT(F$4:H$4,F10:H10)</f>
+        <v>6670</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E10" s="5">
-        <f>SUMPRODUCT(F$4:H$4,F10:H10)</f>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
         <v>1056</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="E11" s="5"/>
-    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(D7:D13)</f>
+        <v>148</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14">
+        <f>SUM(F7:F13)</f>
+        <v>142</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G7:G13)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <f>SUM(D7:D15)</f>
-        <v>56</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16">
-        <f>SUM(F7:F15)</f>
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <f>SUM(G7:G15)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="14">
-        <f>SUM(E7:E15)</f>
-        <v>8060</v>
-      </c>
-      <c r="F17" s="5">
-        <f>F16*F4</f>
-        <v>7392</v>
-      </c>
-      <c r="G17" s="5">
-        <f>G16*G4</f>
-        <v>668</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14">
+        <f>SUM(E7:E13)</f>
+        <v>19746</v>
+      </c>
+      <c r="F15" s="5">
+        <f>F14*F4</f>
+        <v>18744</v>
+      </c>
+      <c r="G15" s="5">
+        <f>G14*G4</f>
+        <v>1002</v>
+      </c>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BudgetEstimateGridGeomInC++.xlsx
+++ b/doc/BudgetEstimateGridGeomInC++.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUCA\ENGINES\GridGeom++\gridgeom++\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUCA\ENGINES\GridGeom++\lastCheckout\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297002C-98D8-4AEA-AB7D-D3B81972B606}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72FD1B-F8B8-437F-8E25-CD4164E0BC00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="bestedingen" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -643,7 +643,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
